--- a/Agile_Document.xlsx
+++ b/Agile_Document.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="151">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Orchestration Logic</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>US007</t>
@@ -323,9 +320,6 @@
     <t>API development</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>T9</t>
   </si>
   <si>
@@ -386,6 +380,18 @@
     <t>Optimized orchestration flow</t>
   </si>
   <si>
+    <t>API response latency</t>
+  </si>
+  <si>
+    <t>Optimized agent chaining</t>
+  </si>
+  <si>
+    <t>UI-API integration issues</t>
+  </si>
+  <si>
+    <t>Fixed CORS &amp; response formatting</t>
+  </si>
+  <si>
     <t>SL #</t>
   </si>
   <si>
@@ -450,6 +456,18 @@
   </si>
   <si>
     <t>Created separate agents with clearly defined responsibilities</t>
+  </si>
+  <si>
+    <t>API-first workflow design</t>
+  </si>
+  <si>
+    <t>Manual workflow triggering</t>
+  </si>
+  <si>
+    <t>End-to-end testing</t>
+  </si>
+  <si>
+    <t>Implemented API-driven workflow automation for the multi-agent system</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
     <numFmt numFmtId="165" formatCode="mm-dd-yyyy"/>
     <numFmt numFmtId="166" formatCode="d mmm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -498,6 +516,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -507,15 +533,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,12 +570,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92CDDC"/>
         <bgColor rgb="FF92CDDC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -617,11 +651,19 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -682,43 +724,64 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1199,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1147,22 +1210,22 @@
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1196,70 +1259,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
@@ -1272,7 +1335,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="10">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="J2" s="10">
         <v>0.0</v>
@@ -1322,34 +1385,34 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I3" s="11">
         <v>3.0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -1369,25 +1432,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11">
         <v>3.0</v>
@@ -1395,10 +1458,10 @@
       <c r="J4" s="13"/>
       <c r="K4" s="12"/>
       <c r="L4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -1416,25 +1479,25 @@
         <v>15</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="11">
         <v>6.0</v>
@@ -1444,13 +1507,13 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -1465,40 +1528,40 @@
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="11">
         <v>7.0</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -1516,13 +1579,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="17">
         <v>45700.0</v>
@@ -1531,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="11">
         <v>5.0</v>
@@ -1543,19 +1606,19 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="18"/>
@@ -1569,49 +1632,49 @@
         <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D8" s="17">
         <v>45942.0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="11">
         <v>10.0</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="18"/>
@@ -1626,25 +1689,25 @@
         <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="11">
         <v>8.0</v>
@@ -1657,25 +1720,25 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1683,86 +1746,142 @@
         <v>31</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="I10" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E11" s="19">
         <v>46174.0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="I11" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1800,16 +1919,16 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -1817,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -1831,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -1845,13 +1964,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -1859,13 +1978,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -1873,13 +1992,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -1887,26 +2006,64 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1929,168 +2086,186 @@
     <col customWidth="1" min="6" max="6" width="50.88"/>
     <col customWidth="1" min="7" max="7" width="46.63"/>
     <col customWidth="1" min="8" max="8" width="41.5"/>
-    <col customWidth="1" min="9" max="9" width="47.75"/>
+    <col customWidth="1" min="9" max="9" width="54.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>131</v>
       </c>
+      <c r="H1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="23">
+      <c r="A2" s="26">
         <v>1.0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="27">
         <v>45973.0</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="27">
         <v>45986.0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="30" t="s">
         <v>136</v>
       </c>
+      <c r="H2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="23">
+      <c r="A3" s="26">
         <v>2.0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="27">
         <v>45987.0</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="27">
         <v>46000.0</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="E3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="G3" s="31" t="s">
         <v>140</v>
       </c>
+      <c r="H3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="23">
+      <c r="A4" s="26">
         <v>3.0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <v>46001.0</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="27">
         <v>46014.0</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="31" t="s">
         <v>144</v>
       </c>
+      <c r="H4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="29"/>
+      <c r="A5" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="33">
+        <v>46380.0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>46028.0</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="33"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="33"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
